--- a/dorder.xlsx
+++ b/dorder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Documents\GitHub\MSD123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E88F56-486B-4B34-92DC-C18F0A20AD9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB87EE-6D90-47DB-B692-90E3124A7407}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,13 +289,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -600,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -680,7 +674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -694,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -708,7 +702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -722,7 +716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -736,7 +730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -750,7 +744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -764,7 +758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>42</v>
       </c>
@@ -801,7 +795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>19</v>
       </c>
@@ -838,7 +832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>18</v>
       </c>
@@ -852,7 +846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -866,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -880,7 +874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>30</v>
       </c>
@@ -894,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>34</v>
       </c>
@@ -908,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -922,7 +916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>42</v>
       </c>
@@ -959,7 +953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -970,7 +964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>23</v>
       </c>
